--- a/Assets/Docs/StarChance.xlsx
+++ b/Assets/Docs/StarChance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!!WORK\space\Space\Assets\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8B625C-6F37-4C87-9F72-E21BD2B4981B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70120A40-E07C-4AE8-83EB-EA4DD1F3A3F5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{012EE2A3-47CF-4793-A907-6FCE46DA0376}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>StarType</t>
-  </si>
-  <si>
     <t>StartStr: String</t>
   </si>
   <si>
@@ -51,10 +48,13 @@
     <t>Black</t>
   </si>
   <si>
-    <t>D:\!!WORK\space\Space\Assets\Resources\JSON\starChanse.json</t>
-  </si>
-  <si>
-    <t>chanse</t>
+    <t>chance</t>
+  </si>
+  <si>
+    <t>D:\!!WORK\space\Space\Assets\Resources\JSON\starChance.json</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,13 +461,13 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -641,7 +641,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>5</v>
